--- a/exercises/ch_12_exercises/python_in_excel_exercise_solutions.xlsx
+++ b/exercises/ch_12_exercises/python_in_excel_exercise_solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\exercises\ch_12_exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7BBBF81-F7A9-43DB-A2C2-A788582DD8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B8E8A-BED1-4AD0-BED7-03192F3DAB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -53,11 +53,74 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="10">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
         </ext>
       </extLst>
     </bk>
@@ -67,9 +130,36 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="10">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -79,26 +169,36 @@
 <pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
   <pythonScript>
     <code>sales = xl(%P2%)
-sales.head()
-# print out column names
-sales.columns</code>
+sales['sales'] = sales['product_price'] * sales['sales_quantity']
+sales['sales_quantity'].describe()</code>
+  </pythonScript>
+  <pythonScript>
+    <code>sales.isna().sum()
+sales_complete = sales.dropna()
+sales_complete.info()</code>
+  </pythonScript>
+  <pythonScript>
+    <code>sns.pairplot(data=sales)</code>
+  </pythonScript>
+  <pythonScript>
+    <code>sns.violinplot(x='product_category', y='total_sales', data=sales)
+plt.title('Violin Plot of Total Sales Across Product Categories')
+plt.xlabel('Product Category')
+plt.ylabel('Total Sales')</code>
+  </pythonScript>
+  <pythonScript>
+    <code>sales.head()</code>
+  </pythonScript>
+  <pythonScript>
+    <code>sales.dtypes</code>
   </pythonScript>
 </pythonScripts>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="21">
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>product_price</t>
-  </si>
-  <si>
-    <t>sales_quantity</t>
-  </si>
-  <si>
-    <t>product_category</t>
   </si>
   <si>
     <t>region</t>
@@ -145,6 +245,21 @@
   <si>
     <t>Resample the time series data to obtain the monthly total sales. Plot the original daily total sales and the resampled monthly total sales on the same graph for comparison</t>
   </si>
+  <si>
+    <t>https://chat.openai.com/share/6c9c2059-5022-4a97-a310-2231dffa3381</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +280,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,10 +321,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -211,6 +336,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -237,23 +379,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -309,35 +434,195 @@
 </rvTypesInfo>
 </file>
 
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="6">
+    <v t="e">#N/A</v>
+    <v t="e">#N/A</v>
+    <v t="e">#N/A</v>
+    <v t="e">#N/A</v>
+    <v t="e">#N/A</v>
+    <v t="e">#N/A</v>
+  </a>
+</arrayData>
+</file>
+
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
   <rv s="0">
-    <v>&lt;class 'pandas.core.indexes.range.RangeIndex'&gt;</v>
-    <v>RangeIndex</v>
-    <v>RangeIndex(start=0, stop=5, step=1)</v>
+    <v>8b1e2689b1cc4e87a1f32f333a69f656</v>
+    <v>'product_price'</v>
+    <v>KeyError</v>
+    <v>18</v>
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>&lt;class 'NoneType'&gt;</v>
+    <v>None</v>
+    <v>None</v>
+  </rv>
+  <rv s="0">
+    <v>d03628e984ef45338cfb276d4910e4e0</v>
+    <v>No variables found for grid columns.</v>
+    <v>ValueError</v>
+    <v>18</v>
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <v>ba97804a684d49e1a36ae40f8747e468</v>
+    <v>Could not interpret input 'product_category'</v>
+    <v>ValueError</v>
+    <v>18</v>
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <fb>43831</fb>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <fb>0</fb>
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <fb>43832</fb>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <fb>43833</fb>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <fb>43834</fb>
+    <v>0</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+  </rv>
+  <rv s="4">
+    <v>Series</v>
+    <v>3</v>
+    <v>9</v>
+  </rv>
+  <rv s="5">
+    <v>&lt;class 'pandas.core.series.Series'&gt;</v>
+    <v>Series</v>
+    <v>0    object
+1    object
+2    object
+3    object
+4    object
+5    object
+dtype: object</v>
+    <v>10</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+  <s t="_error">
+    <k n="correlationId" t="s"/>
+    <k n="errorMessage" t="s"/>
+    <k n="errorName" t="s"/>
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
   <s t="_python">
     <k n="Python_type" t="s"/>
     <k n="Python_typeName" t="s"/>
     <k n="Python_str" t="s"/>
   </s>
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+  </s>
 </rvStructures>
 </file>
 
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="4">
+    <spb s="0">
+      <v>1</v>
+    </spb>
+    <spb s="0">
+      <v>2</v>
+    </spb>
+    <spb s="1">
+      <v>6</v>
+      <v>1</v>
+      <v>Series</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="2">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0"/>
+    <rSty dxfid="1">
+      <rpv i="0">0;-0;* "None"</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DB13A6-8040-411E-BB3E-743922A01171}" name="sales" displayName="sales" ref="A1:E367" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:E367" xr:uid="{14DB13A6-8040-411E-BB3E-743922A01171}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FC70F59A-03D1-4FB8-B032-7E9BD3E16D37}" name="date" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{D1667B51-7568-4BD8-AB54-F782F20CF9E2}" name="product_price"/>
-    <tableColumn id="3" xr3:uid="{192DE14F-2E8B-4617-9F05-1E16467D9F61}" name="sales_quantity"/>
-    <tableColumn id="4" xr3:uid="{6D703CF9-25F6-4D39-A4C6-1E084E7DBADA}" name="product_category"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DB13A6-8040-411E-BB3E-743922A01171}" name="sales" displayName="sales" ref="A1:F367" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:F367" xr:uid="{14DB13A6-8040-411E-BB3E-743922A01171}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FC70F59A-03D1-4FB8-B032-7E9BD3E16D37}" name="date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D1667B51-7568-4BD8-AB54-F782F20CF9E2}" name="price"/>
+    <tableColumn id="3" xr3:uid="{192DE14F-2E8B-4617-9F05-1E16467D9F61}" name="quantity"/>
+    <tableColumn id="4" xr3:uid="{6D703CF9-25F6-4D39-A4C6-1E084E7DBADA}" name="category"/>
     <tableColumn id="5" xr3:uid="{0FA53D61-CCEC-490A-A533-D4A1E977F89B}" name="region"/>
+    <tableColumn id="6" xr3:uid="{202C0B38-25F8-460C-8767-78D03503D3C5}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,7 +913,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="778" row="7">
+  <wetp:taskpane dockstate="right" visibility="0" width="700" row="7">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -644,6 +929,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -655,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -670,24 +958,27 @@
     <col min="5" max="5" width="7.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -698,10 +989,13 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43832</v>
       </c>
@@ -712,13 +1006,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43833</v>
       </c>
@@ -729,13 +1023,13 @@
         <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43834</v>
       </c>
@@ -746,10 +1040,10 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43835</v>
       </c>
@@ -760,13 +1054,13 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43836</v>
       </c>
@@ -777,13 +1071,13 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43837</v>
       </c>
@@ -791,13 +1085,13 @@
         <v>67.5</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43838</v>
       </c>
@@ -805,13 +1099,13 @@
         <v>867.51</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43839</v>
       </c>
@@ -822,13 +1116,13 @@
         <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43840</v>
       </c>
@@ -839,13 +1133,13 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43841</v>
       </c>
@@ -856,13 +1150,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43842</v>
       </c>
@@ -873,13 +1167,13 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>43843</v>
       </c>
@@ -890,13 +1184,13 @@
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>43844</v>
       </c>
@@ -907,13 +1201,13 @@
         <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>43845</v>
       </c>
@@ -924,10 +1218,10 @@
         <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -941,10 +1235,10 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -958,10 +1252,10 @@
         <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -975,10 +1269,10 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -989,10 +1283,10 @@
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -1006,10 +1300,10 @@
         <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -1023,10 +1317,10 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -1040,10 +1334,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -1057,10 +1351,10 @@
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -1074,10 +1368,10 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -1091,7 +1385,7 @@
         <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -1105,10 +1399,10 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -1122,10 +1416,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -1139,10 +1433,10 @@
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -1156,10 +1450,10 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -1173,10 +1467,10 @@
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -1190,10 +1484,10 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -1207,10 +1501,10 @@
         <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -1224,10 +1518,10 @@
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -1241,7 +1535,7 @@
         <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -1255,10 +1549,10 @@
         <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -1272,10 +1566,10 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -1289,10 +1583,10 @@
         <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -1306,10 +1600,10 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -1323,10 +1617,10 @@
         <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -1340,10 +1634,10 @@
         <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
@@ -1357,10 +1651,10 @@
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
@@ -1374,10 +1668,10 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -1391,10 +1685,10 @@
         <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
@@ -1419,10 +1713,10 @@
         <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
@@ -1436,10 +1730,10 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
@@ -1453,10 +1747,10 @@
         <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -1470,10 +1764,10 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
@@ -1487,10 +1781,10 @@
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
@@ -1504,7 +1798,7 @@
         <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
@@ -1515,10 +1809,10 @@
         <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
@@ -1532,10 +1826,10 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -1549,10 +1843,10 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
@@ -1566,10 +1860,10 @@
         <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -1583,10 +1877,10 @@
         <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
@@ -1600,10 +1894,10 @@
         <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
@@ -1614,7 +1908,7 @@
         <v>97.61</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
@@ -1628,10 +1922,10 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
@@ -1645,10 +1939,10 @@
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
@@ -1662,10 +1956,10 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
@@ -1679,10 +1973,10 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
@@ -1696,10 +1990,10 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
@@ -1713,10 +2007,10 @@
         <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
@@ -1730,10 +2024,10 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
@@ -1747,10 +2041,10 @@
         <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
@@ -1764,10 +2058,10 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
@@ -1781,10 +2075,10 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
@@ -1798,10 +2092,10 @@
         <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
@@ -1815,10 +2109,10 @@
         <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
@@ -1832,10 +2126,10 @@
         <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
@@ -1849,10 +2143,10 @@
         <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
@@ -1866,10 +2160,10 @@
         <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
@@ -1883,10 +2177,10 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
@@ -1900,10 +2194,10 @@
         <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
@@ -1917,7 +2211,7 @@
         <v>99</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
@@ -1931,10 +2225,10 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
@@ -1948,10 +2242,10 @@
         <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
@@ -1962,10 +2256,10 @@
         <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
@@ -1979,10 +2273,10 @@
         <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
@@ -1996,10 +2290,10 @@
         <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
@@ -2013,7 +2307,7 @@
         <v>23</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
@@ -2027,10 +2321,10 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
@@ -2044,10 +2338,10 @@
         <v>57</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
@@ -2061,7 +2355,7 @@
         <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
@@ -2075,10 +2369,10 @@
         <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
@@ -2092,10 +2386,10 @@
         <v>42</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
@@ -2109,7 +2403,7 @@
         <v>58</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
@@ -2123,10 +2417,10 @@
         <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
@@ -2140,10 +2434,10 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
@@ -2157,10 +2451,10 @@
         <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
@@ -2174,10 +2468,10 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
@@ -2191,7 +2485,7 @@
         <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
@@ -2202,10 +2496,10 @@
         <v>87</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
@@ -2216,10 +2510,10 @@
         <v>565.66</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
@@ -2230,10 +2524,10 @@
         <v>773.26</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
@@ -2247,10 +2541,10 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
@@ -2264,10 +2558,10 @@
         <v>76</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
@@ -2281,10 +2575,10 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
@@ -2298,7 +2592,7 @@
         <v>74</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
@@ -2309,10 +2603,10 @@
         <v>116.81</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
@@ -2326,7 +2620,7 @@
         <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
@@ -2340,7 +2634,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
@@ -2354,10 +2648,10 @@
         <v>46</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
@@ -2371,10 +2665,10 @@
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
@@ -2388,10 +2682,10 @@
         <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
@@ -2405,7 +2699,7 @@
         <v>42</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
@@ -2419,10 +2713,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
@@ -2436,10 +2730,10 @@
         <v>50</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
@@ -2453,10 +2747,10 @@
         <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
@@ -2470,10 +2764,10 @@
         <v>66</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
@@ -2487,7 +2781,7 @@
         <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
@@ -2501,10 +2795,10 @@
         <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
@@ -2518,10 +2812,10 @@
         <v>37</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
@@ -2535,10 +2829,10 @@
         <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
@@ -2552,10 +2846,10 @@
         <v>83</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
@@ -2566,10 +2860,10 @@
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
@@ -2583,7 +2877,7 @@
         <v>65</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
@@ -2597,10 +2891,10 @@
         <v>86</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
@@ -2614,10 +2908,10 @@
         <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
@@ -2631,10 +2925,10 @@
         <v>71</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
@@ -2645,10 +2939,10 @@
         <v>809.37</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
@@ -2662,10 +2956,10 @@
         <v>45</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
@@ -2679,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
@@ -2693,10 +2987,10 @@
         <v>36</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
@@ -2710,10 +3004,10 @@
         <v>70</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
@@ -2727,10 +3021,10 @@
         <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
@@ -2744,10 +3038,10 @@
         <v>19</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
@@ -2761,10 +3055,10 @@
         <v>61</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
@@ -2778,10 +3072,10 @@
         <v>54</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
@@ -2795,10 +3089,10 @@
         <v>39</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
@@ -2812,10 +3106,10 @@
         <v>91</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
@@ -2829,10 +3123,10 @@
         <v>74</v>
       </c>
       <c r="D133" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
@@ -2846,10 +3140,10 @@
         <v>90</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
@@ -2863,10 +3157,10 @@
         <v>19</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
@@ -2880,10 +3174,10 @@
         <v>39</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
@@ -2897,10 +3191,10 @@
         <v>67</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
@@ -2911,7 +3205,7 @@
         <v>523.6</v>
       </c>
       <c r="D138" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
@@ -2925,10 +3219,10 @@
         <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
@@ -2942,10 +3236,10 @@
         <v>92</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
@@ -2959,7 +3253,7 @@
         <v>58</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
@@ -2973,10 +3267,10 @@
         <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
@@ -2990,10 +3284,10 @@
         <v>92</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
@@ -3007,10 +3301,10 @@
         <v>72</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
@@ -3024,10 +3318,10 @@
         <v>61</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
@@ -3041,7 +3335,7 @@
         <v>39</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
@@ -3055,10 +3349,10 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
@@ -3072,10 +3366,10 @@
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
@@ -3089,10 +3383,10 @@
         <v>77</v>
       </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
@@ -3103,10 +3397,10 @@
         <v>60.96</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
@@ -3120,10 +3414,10 @@
         <v>62</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
@@ -3137,10 +3431,10 @@
         <v>63</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
@@ -3154,10 +3448,10 @@
         <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E153" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
@@ -3171,10 +3465,10 @@
         <v>56</v>
       </c>
       <c r="D154" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
@@ -3188,10 +3482,10 @@
         <v>33</v>
       </c>
       <c r="D155" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
@@ -3205,10 +3499,10 @@
         <v>38</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
@@ -3222,10 +3516,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
@@ -3239,10 +3533,10 @@
         <v>58</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
@@ -3256,10 +3550,10 @@
         <v>44</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
@@ -3270,10 +3564,10 @@
         <v>45</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
@@ -3287,10 +3581,10 @@
         <v>32</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
@@ -3304,7 +3598,7 @@
         <v>45</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
@@ -3318,10 +3612,10 @@
         <v>61</v>
       </c>
       <c r="D163" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
@@ -3335,10 +3629,10 @@
         <v>47</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
@@ -3352,10 +3646,10 @@
         <v>21</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
@@ -3369,10 +3663,10 @@
         <v>80</v>
       </c>
       <c r="D166" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
@@ -3386,10 +3680,10 @@
         <v>85</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
@@ -3403,10 +3697,10 @@
         <v>75</v>
       </c>
       <c r="D168" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
@@ -3420,10 +3714,10 @@
         <v>36</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
@@ -3437,10 +3731,10 @@
         <v>99</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
@@ -3454,10 +3748,10 @@
         <v>19</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
@@ -3471,10 +3765,10 @@
         <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
@@ -3488,10 +3782,10 @@
         <v>57</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
@@ -3505,10 +3799,10 @@
         <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
@@ -3522,10 +3816,10 @@
         <v>47</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
@@ -3539,10 +3833,10 @@
         <v>49</v>
       </c>
       <c r="D176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
@@ -3556,10 +3850,10 @@
         <v>14</v>
       </c>
       <c r="D177" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
@@ -3573,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
@@ -3587,10 +3881,10 @@
         <v>31</v>
       </c>
       <c r="D179" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
@@ -3604,10 +3898,10 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
@@ -3621,10 +3915,10 @@
         <v>54</v>
       </c>
       <c r="D181" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
@@ -3638,10 +3932,10 @@
         <v>3</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
@@ -3655,10 +3949,10 @@
         <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
@@ -3672,10 +3966,10 @@
         <v>87</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
@@ -3689,10 +3983,10 @@
         <v>57</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
@@ -3706,10 +4000,10 @@
         <v>75</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
@@ -3723,10 +4017,10 @@
         <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
@@ -3740,10 +4034,10 @@
         <v>74</v>
       </c>
       <c r="D188" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
@@ -3757,10 +4051,10 @@
         <v>96</v>
       </c>
       <c r="D189" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
@@ -3774,10 +4068,10 @@
         <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
@@ -3791,10 +4085,10 @@
         <v>72</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
@@ -3808,10 +4102,10 @@
         <v>76</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
@@ -3825,10 +4119,10 @@
         <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
@@ -3842,10 +4136,10 @@
         <v>28</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
@@ -3859,10 +4153,10 @@
         <v>8</v>
       </c>
       <c r="D195" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
@@ -3876,10 +4170,10 @@
         <v>92</v>
       </c>
       <c r="D196" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
@@ -3893,7 +4187,7 @@
         <v>36</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
@@ -3907,10 +4201,10 @@
         <v>90</v>
       </c>
       <c r="D198" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
@@ -3924,10 +4218,10 @@
         <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
@@ -3941,10 +4235,10 @@
         <v>58</v>
       </c>
       <c r="D200" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
@@ -3958,10 +4252,10 @@
         <v>60</v>
       </c>
       <c r="D201" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E201" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
@@ -3975,10 +4269,10 @@
         <v>50</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
@@ -3992,10 +4286,10 @@
         <v>28</v>
       </c>
       <c r="D203" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
@@ -4009,10 +4303,10 @@
         <v>92</v>
       </c>
       <c r="D204" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
@@ -4026,10 +4320,10 @@
         <v>41</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E205" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
@@ -4040,10 +4334,10 @@
         <v>610.36</v>
       </c>
       <c r="D206" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
@@ -4057,10 +4351,10 @@
         <v>27</v>
       </c>
       <c r="D207" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
@@ -4074,10 +4368,10 @@
         <v>63</v>
       </c>
       <c r="D208" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
@@ -4091,10 +4385,10 @@
         <v>17</v>
       </c>
       <c r="D209" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
@@ -4108,10 +4402,10 @@
         <v>73</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E210" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
@@ -4125,10 +4419,10 @@
         <v>33</v>
       </c>
       <c r="D211" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
@@ -4142,10 +4436,10 @@
         <v>84</v>
       </c>
       <c r="D212" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
@@ -4159,10 +4453,10 @@
         <v>77</v>
       </c>
       <c r="D213" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E213" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
@@ -4176,7 +4470,7 @@
         <v>92</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
@@ -4190,10 +4484,10 @@
         <v>29</v>
       </c>
       <c r="D215" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
@@ -4207,10 +4501,10 @@
         <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
@@ -4224,10 +4518,10 @@
         <v>46</v>
       </c>
       <c r="D217" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
@@ -4238,10 +4532,10 @@
         <v>35</v>
       </c>
       <c r="D218" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
@@ -4255,10 +4549,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E219" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
@@ -4272,10 +4566,10 @@
         <v>82</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
@@ -4286,10 +4580,10 @@
         <v>850.73</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
@@ -4303,7 +4597,7 @@
         <v>47</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
@@ -4314,10 +4608,10 @@
         <v>572.63</v>
       </c>
       <c r="D223" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
@@ -4331,10 +4625,10 @@
         <v>66</v>
       </c>
       <c r="D224" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
@@ -4348,10 +4642,10 @@
         <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.45">
@@ -4365,10 +4659,10 @@
         <v>56</v>
       </c>
       <c r="D226" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E226" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.45">
@@ -4382,10 +4676,10 @@
         <v>30</v>
       </c>
       <c r="D227" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
@@ -4399,10 +4693,10 @@
         <v>5</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E228" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
@@ -4416,10 +4710,10 @@
         <v>33</v>
       </c>
       <c r="D229" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
@@ -4433,10 +4727,10 @@
         <v>65</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
@@ -4450,10 +4744,10 @@
         <v>18</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
@@ -4467,10 +4761,10 @@
         <v>96</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
@@ -4484,10 +4778,10 @@
         <v>49</v>
       </c>
       <c r="D233" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
@@ -4501,7 +4795,7 @@
         <v>11</v>
       </c>
       <c r="E234" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.45">
@@ -4515,10 +4809,10 @@
         <v>85</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E235" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.45">
@@ -4532,10 +4826,10 @@
         <v>26</v>
       </c>
       <c r="D236" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.45">
@@ -4549,10 +4843,10 @@
         <v>63</v>
       </c>
       <c r="D237" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.45">
@@ -4563,10 +4857,10 @@
         <v>287.95999999999998</v>
       </c>
       <c r="D238" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E238" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.45">
@@ -4580,10 +4874,10 @@
         <v>86</v>
       </c>
       <c r="D239" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E239" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.45">
@@ -4597,10 +4891,10 @@
         <v>59</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.45">
@@ -4614,7 +4908,7 @@
         <v>27</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.45">
@@ -4628,10 +4922,10 @@
         <v>49</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E242" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.45">
@@ -4645,10 +4939,10 @@
         <v>77</v>
       </c>
       <c r="D243" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.45">
@@ -4662,10 +4956,10 @@
         <v>33</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E244" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.45">
@@ -4679,7 +4973,7 @@
         <v>98</v>
       </c>
       <c r="E245" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.45">
@@ -4693,10 +4987,10 @@
         <v>99</v>
       </c>
       <c r="D246" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E246" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.45">
@@ -4710,10 +5004,10 @@
         <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.45">
@@ -4727,10 +5021,10 @@
         <v>21</v>
       </c>
       <c r="D248" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E248" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.45">
@@ -4744,10 +5038,10 @@
         <v>55</v>
       </c>
       <c r="D249" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E249" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.45">
@@ -4761,10 +5055,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E250" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.45">
@@ -4778,10 +5072,10 @@
         <v>92</v>
       </c>
       <c r="D251" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E251" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.45">
@@ -4795,10 +5089,10 @@
         <v>81</v>
       </c>
       <c r="D252" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E252" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.45">
@@ -4812,10 +5106,10 @@
         <v>69</v>
       </c>
       <c r="D253" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.45">
@@ -4829,10 +5123,10 @@
         <v>95</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.45">
@@ -4846,10 +5140,10 @@
         <v>5</v>
       </c>
       <c r="D255" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E255" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.45">
@@ -4863,10 +5157,10 @@
         <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E256" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.45">
@@ -4880,7 +5174,7 @@
         <v>53</v>
       </c>
       <c r="E257" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.45">
@@ -4891,10 +5185,10 @@
         <v>23</v>
       </c>
       <c r="D258" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E258" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.45">
@@ -4908,10 +5202,10 @@
         <v>53</v>
       </c>
       <c r="D259" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E259" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.45">
@@ -4925,10 +5219,10 @@
         <v>37</v>
       </c>
       <c r="D260" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E260" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.45">
@@ -4942,10 +5236,10 @@
         <v>74</v>
       </c>
       <c r="D261" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E261" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.45">
@@ -4959,10 +5253,10 @@
         <v>74</v>
       </c>
       <c r="D262" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E262" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.45">
@@ -4976,10 +5270,10 @@
         <v>83</v>
       </c>
       <c r="D263" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E263" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.45">
@@ -4993,7 +5287,7 @@
         <v>17</v>
       </c>
       <c r="E264" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.45">
@@ -5007,10 +5301,10 @@
         <v>85</v>
       </c>
       <c r="D265" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E265" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.45">
@@ -5024,10 +5318,10 @@
         <v>78</v>
       </c>
       <c r="D266" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E266" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.45">
@@ -5041,10 +5335,10 @@
         <v>73</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E267" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.45">
@@ -5058,10 +5352,10 @@
         <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E268" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.45">
@@ -5075,10 +5369,10 @@
         <v>51</v>
       </c>
       <c r="D269" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E269" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.45">
@@ -5092,10 +5386,10 @@
         <v>45</v>
       </c>
       <c r="D270" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E270" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.45">
@@ -5109,10 +5403,10 @@
         <v>77</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E271" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.45">
@@ -5126,10 +5420,10 @@
         <v>4</v>
       </c>
       <c r="D272" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E272" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.45">
@@ -5143,10 +5437,10 @@
         <v>62</v>
       </c>
       <c r="D273" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E273" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.45">
@@ -5160,10 +5454,10 @@
         <v>65</v>
       </c>
       <c r="D274" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E274" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.45">
@@ -5177,10 +5471,10 @@
         <v>32</v>
       </c>
       <c r="D275" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E275" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.45">
@@ -5194,10 +5488,10 @@
         <v>34</v>
       </c>
       <c r="D276" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E276" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.45">
@@ -5211,10 +5505,10 @@
         <v>92</v>
       </c>
       <c r="D277" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E277" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.45">
@@ -5228,7 +5522,7 @@
         <v>95</v>
       </c>
       <c r="D278" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.45">
@@ -5242,10 +5536,10 @@
         <v>72</v>
       </c>
       <c r="D279" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E279" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.45">
@@ -5259,10 +5553,10 @@
         <v>39</v>
       </c>
       <c r="D280" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E280" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.45">
@@ -5276,10 +5570,10 @@
         <v>26</v>
       </c>
       <c r="D281" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E281" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.45">
@@ -5293,10 +5587,10 @@
         <v>34</v>
       </c>
       <c r="D282" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E282" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.45">
@@ -5310,10 +5604,10 @@
         <v>54</v>
       </c>
       <c r="D283" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E283" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.45">
@@ -5327,10 +5621,10 @@
         <v>3</v>
       </c>
       <c r="D284" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E284" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.45">
@@ -5344,7 +5638,7 @@
         <v>50</v>
       </c>
       <c r="D285" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.45">
@@ -5358,10 +5652,10 @@
         <v>12</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E286" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.45">
@@ -5372,10 +5666,10 @@
         <v>45.58</v>
       </c>
       <c r="D287" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E287" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.45">
@@ -5389,10 +5683,10 @@
         <v>54</v>
       </c>
       <c r="D288" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E288" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.45">
@@ -5406,10 +5700,10 @@
         <v>5</v>
       </c>
       <c r="D289" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E289" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.45">
@@ -5423,10 +5717,10 @@
         <v>94</v>
       </c>
       <c r="D290" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E290" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.45">
@@ -5437,10 +5731,10 @@
         <v>594.91999999999996</v>
       </c>
       <c r="D291" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E291" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.45">
@@ -5454,10 +5748,10 @@
         <v>57</v>
       </c>
       <c r="D292" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E292" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.45">
@@ -5471,10 +5765,10 @@
         <v>17</v>
       </c>
       <c r="D293" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E293" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.45">
@@ -5488,10 +5782,10 @@
         <v>47</v>
       </c>
       <c r="D294" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E294" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.45">
@@ -5505,10 +5799,10 @@
         <v>23</v>
       </c>
       <c r="D295" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E295" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.45">
@@ -5522,10 +5816,10 @@
         <v>79</v>
       </c>
       <c r="D296" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E296" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.45">
@@ -5539,10 +5833,10 @@
         <v>85</v>
       </c>
       <c r="D297" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E297" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.45">
@@ -5550,10 +5844,10 @@
         <v>44127</v>
       </c>
       <c r="D298" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E298" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.45">
@@ -5567,10 +5861,10 @@
         <v>66</v>
       </c>
       <c r="D299" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E299" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.45">
@@ -5581,10 +5875,10 @@
         <v>626.66</v>
       </c>
       <c r="D300" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E300" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.45">
@@ -5595,10 +5889,10 @@
         <v>94.49</v>
       </c>
       <c r="D301" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E301" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.45">
@@ -5612,10 +5906,10 @@
         <v>38</v>
       </c>
       <c r="D302" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E302" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.45">
@@ -5629,10 +5923,10 @@
         <v>64</v>
       </c>
       <c r="D303" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E303" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.45">
@@ -5646,10 +5940,10 @@
         <v>98</v>
       </c>
       <c r="D304" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E304" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.45">
@@ -5660,10 +5954,10 @@
         <v>38</v>
       </c>
       <c r="D305" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E305" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.45">
@@ -5677,10 +5971,10 @@
         <v>50</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E306" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.45">
@@ -5694,10 +5988,10 @@
         <v>98</v>
       </c>
       <c r="D307" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E307" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.45">
@@ -5711,10 +6005,10 @@
         <v>82</v>
       </c>
       <c r="D308" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E308" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.45">
@@ -5728,10 +6022,10 @@
         <v>30</v>
       </c>
       <c r="D309" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E309" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.45">
@@ -5745,10 +6039,10 @@
         <v>79</v>
       </c>
       <c r="D310" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E310" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.45">
@@ -5762,10 +6056,10 @@
         <v>91</v>
       </c>
       <c r="D311" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E311" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.45">
@@ -5776,10 +6070,10 @@
         <v>444.58</v>
       </c>
       <c r="D312" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E312" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.45">
@@ -5793,10 +6087,10 @@
         <v>63</v>
       </c>
       <c r="D313" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E313" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.45">
@@ -5810,10 +6104,10 @@
         <v>98</v>
       </c>
       <c r="D314" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E314" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.45">
@@ -5827,10 +6121,10 @@
         <v>52</v>
       </c>
       <c r="D315" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E315" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.45">
@@ -5844,10 +6138,10 @@
         <v>38</v>
       </c>
       <c r="D316" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E316" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.45">
@@ -5861,10 +6155,10 @@
         <v>97</v>
       </c>
       <c r="D317" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E317" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.45">
@@ -5878,10 +6172,10 @@
         <v>88</v>
       </c>
       <c r="D318" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E318" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.45">
@@ -5895,10 +6189,10 @@
         <v>79</v>
       </c>
       <c r="D319" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E319" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.45">
@@ -5912,10 +6206,10 @@
         <v>30</v>
       </c>
       <c r="D320" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E320" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.45">
@@ -5929,7 +6223,7 @@
         <v>51</v>
       </c>
       <c r="D321" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.45">
@@ -5943,10 +6237,10 @@
         <v>81</v>
       </c>
       <c r="D322" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E322" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.45">
@@ -5960,7 +6254,7 @@
         <v>5</v>
       </c>
       <c r="D323" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.45">
@@ -5974,10 +6268,10 @@
         <v>29</v>
       </c>
       <c r="D324" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E324" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.45">
@@ -5991,10 +6285,10 @@
         <v>4</v>
       </c>
       <c r="D325" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E325" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.45">
@@ -6008,10 +6302,10 @@
         <v>10</v>
       </c>
       <c r="D326" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E326" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.45">
@@ -6025,10 +6319,10 @@
         <v>56</v>
       </c>
       <c r="D327" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E327" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.45">
@@ -6042,10 +6336,10 @@
         <v>17</v>
       </c>
       <c r="D328" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E328" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.45">
@@ -6059,10 +6353,10 @@
         <v>74</v>
       </c>
       <c r="D329" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E329" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.45">
@@ -6076,10 +6370,10 @@
         <v>17</v>
       </c>
       <c r="D330" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E330" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.45">
@@ -6093,10 +6387,10 @@
         <v>84</v>
       </c>
       <c r="D331" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E331" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.45">
@@ -6110,10 +6404,10 @@
         <v>88</v>
       </c>
       <c r="D332" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E332" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.45">
@@ -6127,7 +6421,7 @@
         <v>69</v>
       </c>
       <c r="E333" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.45">
@@ -6141,10 +6435,10 @@
         <v>34</v>
       </c>
       <c r="D334" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E334" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.45">
@@ -6158,10 +6452,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E335" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.45">
@@ -6175,10 +6469,10 @@
         <v>53</v>
       </c>
       <c r="D336" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E336" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.45">
@@ -6192,10 +6486,10 @@
         <v>66</v>
       </c>
       <c r="D337" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E337" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.45">
@@ -6206,10 +6500,10 @@
         <v>856.91</v>
       </c>
       <c r="D338" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E338" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.45">
@@ -6223,10 +6517,10 @@
         <v>43</v>
       </c>
       <c r="D339" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E339" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.45">
@@ -6240,10 +6534,10 @@
         <v>75</v>
       </c>
       <c r="D340" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E340" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.45">
@@ -6257,10 +6551,10 @@
         <v>23</v>
       </c>
       <c r="D341" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E341" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.45">
@@ -6274,10 +6568,10 @@
         <v>55</v>
       </c>
       <c r="D342" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E342" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.45">
@@ -6291,10 +6585,10 @@
         <v>80</v>
       </c>
       <c r="D343" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E343" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.45">
@@ -6308,10 +6602,10 @@
         <v>95</v>
       </c>
       <c r="D344" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E344" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.45">
@@ -6322,10 +6616,10 @@
         <v>75</v>
       </c>
       <c r="D345" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E345" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.45">
@@ -6339,10 +6633,10 @@
         <v>16</v>
       </c>
       <c r="D346" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E346" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.45">
@@ -6356,10 +6650,10 @@
         <v>8</v>
       </c>
       <c r="D347" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E347" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.45">
@@ -6373,10 +6667,10 @@
         <v>4</v>
       </c>
       <c r="D348" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E348" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.45">
@@ -6390,10 +6684,10 @@
         <v>4</v>
       </c>
       <c r="D349" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E349" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.45">
@@ -6407,10 +6701,10 @@
         <v>56</v>
       </c>
       <c r="D350" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E350" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.45">
@@ -6424,7 +6718,7 @@
         <v>25</v>
       </c>
       <c r="D351" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.45">
@@ -6438,10 +6732,10 @@
         <v>67</v>
       </c>
       <c r="D352" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E352" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.45">
@@ -6455,10 +6749,10 @@
         <v>96</v>
       </c>
       <c r="D353" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E353" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.45">
@@ -6472,10 +6766,10 @@
         <v>67</v>
       </c>
       <c r="D354" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E354" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.45">
@@ -6489,10 +6783,10 @@
         <v>27</v>
       </c>
       <c r="D355" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E355" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.45">
@@ -6506,10 +6800,10 @@
         <v>93</v>
       </c>
       <c r="D356" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E356" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.45">
@@ -6523,10 +6817,10 @@
         <v>32</v>
       </c>
       <c r="D357" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E357" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.45">
@@ -6540,10 +6834,10 @@
         <v>50</v>
       </c>
       <c r="D358" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E358" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.45">
@@ -6557,10 +6851,10 @@
         <v>61</v>
       </c>
       <c r="D359" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E359" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.45">
@@ -6574,10 +6868,10 @@
         <v>51</v>
       </c>
       <c r="D360" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E360" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.45">
@@ -6591,10 +6885,10 @@
         <v>19</v>
       </c>
       <c r="D361" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E361" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.45">
@@ -6608,10 +6902,10 @@
         <v>21</v>
       </c>
       <c r="D362" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E362" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.45">
@@ -6625,10 +6919,10 @@
         <v>5</v>
       </c>
       <c r="D363" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E363" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.45">
@@ -6642,10 +6936,10 @@
         <v>82</v>
       </c>
       <c r="D364" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E364" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.45">
@@ -6659,10 +6953,10 @@
         <v>92</v>
       </c>
       <c r="D365" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E365" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.45">
@@ -6676,10 +6970,10 @@
         <v>42</v>
       </c>
       <c r="D366" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E366" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.45">
@@ -6693,7 +6987,7 @@
         <v>61</v>
       </c>
       <c r="E367" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6706,10 +7000,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8B9DCC-56E8-4AE0-B593-0B8F463DDEC1}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="e" cm="1" vm="1">
+        <f t="array" ref="A3">_xlfn._xlws.PY(0,0,sales[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E46122-E855-4E3B-A099-BE35064EC442}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="e" cm="1" vm="2">
+        <f t="array" ref="A4">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7406170B-41D9-4B38-81A3-4A0097B6E260}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="e" cm="1" vm="3">
+        <f t="array" ref="A3">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F4660E-25B5-453A-94DC-0981DB50D37C}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6719,64 +7101,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="e" cm="1" vm="1">
-        <f t="array" ref="A3">_xlfn._xlws.PY(0,1,sales[#All])</f>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="e" cm="1" vm="4">
+        <f t="array" ref="A4">_xlfn._xlws.PY(3,1)</f>
         <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E46122-E855-4E3B-A099-BE35064EC442}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7406170B-41D9-4B38-81A3-4A0097B6E260}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F4660E-25B5-453A-94DC-0981DB50D37C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6786,15 +7114,127 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18881077-379E-4C0E-8BD0-1C052DC161F7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="12.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="str" cm="1">
+        <f t="array" ref="A3:F7">_xlfn._xlws.PY(4,0)</f>
+        <v>date</v>
+      </c>
+      <c r="B3" t="str">
+        <v>price</v>
+      </c>
+      <c r="C3" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="D3" t="str">
+        <v>category</v>
+      </c>
+      <c r="E3" t="str">
+        <v>region</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Column1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" vm="5">
+        <v>43831</v>
+      </c>
+      <c r="B4">
+        <v>380.79</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="E4" vm="6">
+        <v>0</v>
+      </c>
+      <c r="F4" vm="5">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" vm="7">
+        <v>43832</v>
+      </c>
+      <c r="B5">
+        <v>951.21</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="E5" t="str">
+        <v>North</v>
+      </c>
+      <c r="F5" vm="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" vm="8">
+        <v>43833</v>
+      </c>
+      <c r="B6">
+        <v>734.67</v>
+      </c>
+      <c r="C6">
+        <v>74</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Books</v>
+      </c>
+      <c r="E6" t="str">
+        <v>North</v>
+      </c>
+      <c r="F6" vm="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" vm="9">
+        <v>43834</v>
+      </c>
+      <c r="B7">
+        <v>602.66999999999996</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7" vm="6">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>South</v>
+      </c>
+      <c r="F7" vm="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="e" cm="1" vm="10">
+        <f t="array" ref="A11">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -6812,7 +7252,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
